--- a/Mifos Automation Excels/Loan Product/Productloannavigation.xlsx
+++ b/Mifos Automation Excels/Loan Product/Productloannavigation.xlsx
@@ -19,9 +19,6 @@
     <t>NavigateURL</t>
   </si>
   <si>
-    <t>/products</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
@@ -32,6 +29,9 @@
   </si>
   <si>
     <t>loanproducts</t>
+  </si>
+  <si>
+    <t>products</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -391,23 +391,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
